--- a/plantillas/Opiniones_Demarcacion.xlsx
+++ b/plantillas/Opiniones_Demarcacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual Studio Code\NodeJS\SIVACC\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE8198D-36A9-4163-BAC6-7B63BC9EAD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B50AE80-D257-4880-9092-9CEFB636520A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +84,6 @@
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -195,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -215,37 +208,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -560,11 +550,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -573,109 +561,105 @@
     <col min="7" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="F5" s="11"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="9" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9"/>
+      <c r="E9"/>
       <c r="F9" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="1"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="8"/>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A6:F6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
